--- a/statistics_data.xlsx
+++ b/statistics_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\micho\Desktop\Laby\uczenie_maszynowe\projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DA08FF-D962-4D4E-96C2-8116CB6DF45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2AD1D3-CE24-4958-969F-259D37AB222F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28935" yWindow="-135" windowWidth="29070" windowHeight="16470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F1 Macro" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
   <si>
     <t>With preprocessing</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>rbf, c=1, gamma=scale</t>
+  </si>
+  <si>
+    <t>tutaj collab</t>
+  </si>
+  <si>
+    <t>tutaj vs</t>
   </si>
 </sst>
 </file>
@@ -99,12 +105,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -145,17 +163,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -436,936 +459,1056 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Y18"/>
+  <dimension ref="A2:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
-    <col min="10" max="10" width="18.21875" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="17.21875" customWidth="1"/>
-    <col min="15" max="25" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" customWidth="1"/>
+    <col min="8" max="8" width="16.36328125" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" customWidth="1"/>
+    <col min="10" max="10" width="18.1796875" customWidth="1"/>
+    <col min="11" max="11" width="15.90625" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.6328125" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" customWidth="1"/>
+    <col min="15" max="25" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1" t="s">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1" t="s">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1" t="s">
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1" t="s">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="s">
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1" t="s">
+      <c r="S4" s="5"/>
+      <c r="T4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1" t="s">
+      <c r="U4" s="5"/>
+      <c r="V4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1" t="s">
+      <c r="W4" s="5"/>
+      <c r="X4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Y4" s="1"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
+      <c r="Y4" s="5"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="U5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="V5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="W5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="X5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Y5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.93</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.95</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.64</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>0.7</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0.95</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>0.96</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>0.95</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>0.96</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>0.59</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="2">
         <v>0.6</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>0.97</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>0.96</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2">
+      <c r="P6" s="8">
+        <v>4.9145590000000003E-2</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>5.0241000000000001E-2</v>
+      </c>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="1">
         <v>0.25</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="1">
         <v>0.25</v>
       </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="V6" s="1">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="W6" s="1">
+        <v>6.7570000000000005E-2</v>
+      </c>
+      <c r="X6" s="6">
+        <v>0.19753999999999999</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>0.19750000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0.97</v>
       </c>
-      <c r="C7" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.72</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0.69</v>
       </c>
-      <c r="F7" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="F7" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="H7" s="1">
         <v>0.96</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>0.98</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>0.63</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>0.65</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>0.97</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>0.95</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2">
+      <c r="P7" s="8">
+        <v>6.3130000000000006E-2</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>5.6057000000000003E-2</v>
+      </c>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="1">
         <v>0.27</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="1">
         <v>0.27</v>
       </c>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="V7" s="1">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="W7" s="1">
+        <v>3.9164999999999998E-2</v>
+      </c>
+      <c r="X7" s="6">
+        <v>0.10845</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>0.10845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>0.96</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>0.98</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0.65</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0.65</v>
       </c>
-      <c r="F8" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="F8" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="H8" s="1">
         <v>0.95</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>0.95</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>0.63</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>0.65</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>0.93</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>0.95</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>0.23</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <v>0.26</v>
       </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2">
+      <c r="P8" s="8">
+        <v>6.6030000000000005E-2</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>6.4346169999999994E-2</v>
+      </c>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="1">
         <v>0.33</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="1">
         <v>0.31</v>
       </c>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="V8" s="1">
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="W8" s="1">
+        <v>7.6156000000000001E-2</v>
+      </c>
+      <c r="X8" s="6">
+        <v>0.24462999999999999</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>0.24462999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>0.93</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0.95</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.68</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0.68</v>
       </c>
-      <c r="F9" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G9" s="1">
         <v>0.96</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>0.97</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>0.98</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>0.62</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>0.65</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <v>0.94</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <v>0.97</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2">
+      <c r="P9" s="8">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="1">
         <v>0.36</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="1">
         <v>0.36</v>
       </c>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="V9" s="1">
+        <v>0.12939999999999999</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0.12909000000000001</v>
+      </c>
+      <c r="X9" s="6">
+        <v>0.15806999999999999</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>0.15806999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>0.96</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>0.96</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0.68</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>0.72</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0.94</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>0.95</v>
       </c>
-      <c r="H10" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="H10" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I10" s="1">
         <v>0.98</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="2">
         <v>0.6</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>0.62</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>0.96</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>0.97</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>0.32</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="1">
         <v>0.32</v>
       </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2">
+      <c r="P10" s="8">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>9.6570000000000003E-2</v>
+      </c>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="1">
         <v>0.31</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="1">
         <v>0.31</v>
       </c>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="V10" s="1">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="W10" s="1">
+        <v>6.6897999999999999E-2</v>
+      </c>
+      <c r="X10" s="6">
+        <v>0.15163599999999999</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>0.15163599999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>0.97</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>0.98</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0.69</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>0.69</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>0.96</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>0.96</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>0.95</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>0.95</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>0.62</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>0.69</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <v>0.95</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <v>0.96</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="1">
         <v>0.26</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="1">
         <v>0.25</v>
       </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2">
+      <c r="P11" s="8">
+        <v>8.6690000000000003E-2</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>8.4849999999999995E-2</v>
+      </c>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="V11" s="1">
+        <v>5.6169999999999998E-2</v>
+      </c>
+      <c r="W11" s="1">
+        <v>5.6169999999999998E-2</v>
+      </c>
+      <c r="X11" s="6">
+        <v>0.35066999999999998</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>0.35067700000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>0.98</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>0.98</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>0.74</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>0.74</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>0.97</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>0.97</v>
       </c>
-      <c r="H12" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="H12" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="J12" s="1">
         <v>0.67</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <v>0.66</v>
       </c>
-      <c r="L12" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="L12" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="N12" s="1">
         <v>0.35</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="1">
         <v>0.36</v>
       </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2">
+      <c r="P12" s="8">
+        <v>5.1984559999999999E-2</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>5.4869250000000001E-2</v>
+      </c>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="1">
         <v>0.31</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12" s="1">
         <v>0.32</v>
       </c>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="V12" s="1">
+        <v>9.8089999999999997E-2</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0.10101400000000001</v>
+      </c>
+      <c r="X12" s="6">
+        <v>0.23297999999999999</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>0.232983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>0.98</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>0.98</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>0.74</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>0.78</v>
       </c>
-      <c r="F13" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="F13" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I13" s="1">
         <v>0.98</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>0.71</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>0.74</v>
       </c>
-      <c r="L13" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="N13" s="4">
+      <c r="L13" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="N13" s="2">
         <v>0.3</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="2">
         <v>0.3</v>
       </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2">
+      <c r="P13" s="8">
+        <v>7.5810000000000002E-2</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>9.0847269999999994E-2</v>
+      </c>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="U13" s="2">
+      <c r="U13" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="V13" s="1">
+        <v>0.14232</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0.13677</v>
+      </c>
+      <c r="X13" s="6">
+        <v>0.11039</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>0.11039</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>0.96</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>0.96</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>0.71</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>0.67</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>0.97</v>
       </c>
-      <c r="G14" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G14" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="H14" s="1">
         <v>0.97</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>0.96</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>0.63</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="3">
         <v>0.62</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <v>0.96</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <v>0.96</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2">
+      <c r="P14" s="8">
+        <v>6.3020000000000007E-2</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>6.1053669999999997E-2</v>
+      </c>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U14" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="V14" s="1">
+        <v>5.4536000000000001E-2</v>
+      </c>
+      <c r="W14" s="1">
+        <v>5.4536000000000001E-2</v>
+      </c>
+      <c r="X14" s="6">
+        <v>0.157309</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>0.157309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>0.97</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>0.97</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>0.65</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>0.74</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>0.97</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>0.97</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>0.97</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>0.97</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="2">
         <v>0.6</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <v>0.62</v>
       </c>
-      <c r="L15" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="M15" s="2">
+      <c r="L15" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="M15" s="1">
         <v>0.98</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="1">
         <v>0.27</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="1">
         <v>0.27</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2">
+      <c r="P15" s="8">
+        <v>5.8270000000000002E-2</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>6.5343999999999999E-2</v>
+      </c>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="U15" s="2">
+      <c r="U15" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="V15" s="1">
+        <v>8.6690000000000003E-2</v>
+      </c>
+      <c r="W15" s="1">
+        <v>8.6690000000000003E-2</v>
+      </c>
+      <c r="X15" s="6">
+        <v>0.20455999999999999</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>0.2047619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <f>AVERAGE(B6:B15)</f>
         <v>0.96100000000000008</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <f t="shared" ref="C16:Y16" si="0">AVERAGE(C6:C15)</f>
         <v>0.97000000000000008</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>0.69000000000000017</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <f>AVERAGE(E6:E15)</f>
         <v>0.70600000000000018</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <f>AVERAGE(F6:F15)</f>
         <v>0.97200000000000009</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <f t="shared" si="0"/>
         <v>0.97300000000000009</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <f t="shared" si="0"/>
         <v>0.96900000000000008</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <f t="shared" si="0"/>
         <v>0.97000000000000008</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="1">
         <f t="shared" si="0"/>
         <v>0.96500000000000008</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="1">
         <f t="shared" si="0"/>
         <v>0.96799999999999997</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="1">
         <f t="shared" si="0"/>
         <v>0.28699999999999998</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="1">
         <f t="shared" si="0"/>
         <v>0.29199999999999998</v>
       </c>
-      <c r="P16" s="2" t="e">
+      <c r="P16" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0838015000000004E-2</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2717835999999994E-2</v>
+      </c>
+      <c r="R16" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q16" s="2" t="e">
+      <c r="S16" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T16" s="2">
+      <c r="T16" s="1">
         <f t="shared" si="0"/>
         <v>0.29500000000000004</v>
       </c>
-      <c r="U16" s="2">
+      <c r="U16" s="1">
         <f t="shared" si="0"/>
         <v>0.29700000000000004</v>
       </c>
-      <c r="V16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V16" s="1">
+        <f t="shared" si="0"/>
+        <v>8.0910599999999999E-2</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" si="0"/>
+        <v>8.1405900000000003E-2</v>
+      </c>
+      <c r="X16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1916235</v>
+      </c>
+      <c r="Y16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19164069</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1430,8 +1573,23 @@
         <v>8</v>
       </c>
     </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="R21" s="7"/>
+      <c r="S21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="R22" s="9"/>
+      <c r="S22" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="N2:Y2"/>
     <mergeCell ref="N3:S3"/>
@@ -1448,9 +1606,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="H3:M3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/statistics_data.xlsx
+++ b/statistics_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\micho\Desktop\Laby\uczenie_maszynowe\projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2AD1D3-CE24-4958-969F-259D37AB222F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A7B082-7B4F-417E-A125-B075EBE17965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F1 Macro" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="18">
   <si>
     <t>With preprocessing</t>
   </si>
@@ -163,22 +163,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -461,149 +460,149 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.90625" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" customWidth="1"/>
-    <col min="8" max="8" width="16.36328125" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" customWidth="1"/>
-    <col min="10" max="10" width="18.1796875" customWidth="1"/>
-    <col min="11" max="11" width="15.90625" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" customWidth="1"/>
-    <col min="13" max="13" width="16.6328125" customWidth="1"/>
-    <col min="14" max="14" width="17.1796875" customWidth="1"/>
-    <col min="15" max="25" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="17.21875" customWidth="1"/>
+    <col min="15" max="25" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5" t="s">
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5" t="s">
+      <c r="M4" s="8"/>
+      <c r="N4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5" t="s">
+      <c r="O4" s="8"/>
+      <c r="P4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5" t="s">
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5" t="s">
+      <c r="S4" s="8"/>
+      <c r="T4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5" t="s">
+      <c r="U4" s="8"/>
+      <c r="V4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5" t="s">
+      <c r="W4" s="8"/>
+      <c r="X4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Y4" s="5"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
+      <c r="Y4" s="8"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -677,7 +676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -723,14 +722,16 @@
       <c r="O6" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="6">
         <v>4.9145590000000003E-2</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="6">
         <v>5.0241000000000001E-2</v>
       </c>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
+      <c r="R6" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="S6" s="1"/>
       <c r="T6" s="1">
         <v>0.25</v>
       </c>
@@ -743,14 +744,14 @@
       <c r="W6" s="1">
         <v>6.7570000000000005E-2</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="4">
         <v>0.19753999999999999</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Y6" s="4">
         <v>0.19750000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -796,14 +797,16 @@
       <c r="O7" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="6">
         <v>6.3130000000000006E-2</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="6">
         <v>5.6057000000000003E-2</v>
       </c>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
+      <c r="R7" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S7" s="1"/>
       <c r="T7" s="1">
         <v>0.27</v>
       </c>
@@ -816,14 +819,14 @@
       <c r="W7" s="1">
         <v>3.9164999999999998E-2</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7" s="4">
         <v>0.10845</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Y7" s="4">
         <v>0.10845</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -869,14 +872,16 @@
       <c r="O8" s="1">
         <v>0.26</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="6">
         <v>6.6030000000000005E-2</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="6">
         <v>6.4346169999999994E-2</v>
       </c>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
+      <c r="R8" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="S8" s="1"/>
       <c r="T8" s="1">
         <v>0.33</v>
       </c>
@@ -889,14 +894,14 @@
       <c r="W8" s="1">
         <v>7.6156000000000001E-2</v>
       </c>
-      <c r="X8" s="6">
+      <c r="X8" s="4">
         <v>0.24462999999999999</v>
       </c>
-      <c r="Y8" s="6">
+      <c r="Y8" s="4">
         <v>0.24462999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -942,14 +947,16 @@
       <c r="O9" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="6">
         <v>0.10100000000000001</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="6">
         <v>0.10299999999999999</v>
       </c>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
+      <c r="R9" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="S9" s="1"/>
       <c r="T9" s="1">
         <v>0.36</v>
       </c>
@@ -962,14 +969,14 @@
       <c r="W9" s="1">
         <v>0.12909000000000001</v>
       </c>
-      <c r="X9" s="6">
+      <c r="X9" s="4">
         <v>0.15806999999999999</v>
       </c>
-      <c r="Y9" s="6">
+      <c r="Y9" s="4">
         <v>0.15806999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -1015,14 +1022,16 @@
       <c r="O10" s="1">
         <v>0.32</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="6">
         <v>9.3299999999999994E-2</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="6">
         <v>9.6570000000000003E-2</v>
       </c>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
+      <c r="R10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="S10" s="1"/>
       <c r="T10" s="1">
         <v>0.31</v>
       </c>
@@ -1035,14 +1044,14 @@
       <c r="W10" s="1">
         <v>6.6897999999999999E-2</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="4">
         <v>0.15163599999999999</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Y10" s="4">
         <v>0.15163599999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -1088,14 +1097,16 @@
       <c r="O11" s="1">
         <v>0.25</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="6">
         <v>8.6690000000000003E-2</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="6">
         <v>8.4849999999999995E-2</v>
       </c>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
+      <c r="R11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="S11" s="1"/>
       <c r="T11" s="1">
         <v>0.28000000000000003</v>
       </c>
@@ -1108,14 +1119,14 @@
       <c r="W11" s="1">
         <v>5.6169999999999998E-2</v>
       </c>
-      <c r="X11" s="6">
+      <c r="X11" s="4">
         <v>0.35066999999999998</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="Y11" s="4">
         <v>0.35067700000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -1161,14 +1172,16 @@
       <c r="O12" s="1">
         <v>0.36</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="6">
         <v>5.1984559999999999E-2</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="6">
         <v>5.4869250000000001E-2</v>
       </c>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
+      <c r="R12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="S12" s="1"/>
       <c r="T12" s="1">
         <v>0.31</v>
       </c>
@@ -1181,14 +1194,14 @@
       <c r="W12" s="1">
         <v>0.10101400000000001</v>
       </c>
-      <c r="X12" s="6">
+      <c r="X12" s="4">
         <v>0.23297999999999999</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="Y12" s="4">
         <v>0.232983</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -1234,14 +1247,16 @@
       <c r="O13" s="2">
         <v>0.3</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="6">
         <v>7.5810000000000002E-2</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="6">
         <v>9.0847269999999994E-2</v>
       </c>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
+      <c r="R13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="S13" s="1"/>
       <c r="T13" s="1">
         <v>0.28000000000000003</v>
       </c>
@@ -1254,14 +1269,14 @@
       <c r="W13" s="1">
         <v>0.13677</v>
       </c>
-      <c r="X13" s="6">
+      <c r="X13" s="4">
         <v>0.11039</v>
       </c>
-      <c r="Y13" s="6">
+      <c r="Y13" s="4">
         <v>0.11039</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -1307,14 +1322,16 @@
       <c r="O14" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="6">
         <v>6.3020000000000007E-2</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="6">
         <v>6.1053669999999997E-2</v>
       </c>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
+      <c r="R14" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S14" s="1"/>
       <c r="T14" s="1">
         <v>0.28000000000000003</v>
       </c>
@@ -1327,14 +1344,14 @@
       <c r="W14" s="1">
         <v>5.4536000000000001E-2</v>
       </c>
-      <c r="X14" s="6">
+      <c r="X14" s="4">
         <v>0.157309</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="Y14" s="4">
         <v>0.157309</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -1380,14 +1397,16 @@
       <c r="O15" s="1">
         <v>0.27</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="6">
         <v>5.8270000000000002E-2</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="6">
         <v>6.5343999999999999E-2</v>
       </c>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
+      <c r="R15" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="S15" s="1"/>
       <c r="T15" s="1">
         <v>0.28000000000000003</v>
       </c>
@@ -1400,14 +1419,14 @@
       <c r="W15" s="1">
         <v>8.6690000000000003E-2</v>
       </c>
-      <c r="X15" s="6">
+      <c r="X15" s="4">
         <v>0.20455999999999999</v>
       </c>
-      <c r="Y15" s="6">
+      <c r="Y15" s="4">
         <v>0.2047619</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1475,14 +1494,14 @@
         <f t="shared" si="0"/>
         <v>7.2717835999999994E-2</v>
       </c>
-      <c r="R16" s="1" t="e">
+      <c r="R16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28500000000000003</v>
+      </c>
+      <c r="S16" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="T16" s="1">
         <f t="shared" si="0"/>
         <v>0.29500000000000004</v>
@@ -1508,7 +1527,7 @@
         <v>0.19164069</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1560,6 +1579,9 @@
       <c r="R18" t="s">
         <v>8</v>
       </c>
+      <c r="S18" t="s">
+        <v>15</v>
+      </c>
       <c r="T18" t="s">
         <v>8</v>
       </c>
@@ -1573,20 +1595,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="R21" s="7"/>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="R21" s="5"/>
       <c r="S21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="R22" s="9"/>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="R22" s="7"/>
       <c r="S22" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:M3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
@@ -1603,9 +1628,6 @@
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/statistics_data.xlsx
+++ b/statistics_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\micho\Desktop\Laby\uczenie_maszynowe\projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A7B082-7B4F-417E-A125-B075EBE17965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D3C276-C7AF-41C9-8BDD-4EE214CCBA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A2:Y22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,7 +731,9 @@
       <c r="R6" s="1">
         <v>0.32</v>
       </c>
-      <c r="S6" s="1"/>
+      <c r="S6" s="1">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="T6" s="1">
         <v>0.25</v>
       </c>
@@ -806,7 +808,9 @@
       <c r="R7" s="2">
         <v>0.3</v>
       </c>
-      <c r="S7" s="1"/>
+      <c r="S7" s="1">
+        <v>0.31</v>
+      </c>
       <c r="T7" s="1">
         <v>0.27</v>
       </c>
@@ -881,7 +885,9 @@
       <c r="R8" s="1">
         <v>0.35</v>
       </c>
-      <c r="S8" s="1"/>
+      <c r="S8" s="1">
+        <v>0.32</v>
+      </c>
       <c r="T8" s="1">
         <v>0.33</v>
       </c>
@@ -956,7 +962,9 @@
       <c r="R9" s="1">
         <v>0.33</v>
       </c>
-      <c r="S9" s="1"/>
+      <c r="S9" s="1">
+        <v>0.33</v>
+      </c>
       <c r="T9" s="1">
         <v>0.36</v>
       </c>
@@ -1031,7 +1039,9 @@
       <c r="R10" s="1">
         <v>0.25</v>
       </c>
-      <c r="S10" s="1"/>
+      <c r="S10" s="1">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="T10" s="1">
         <v>0.31</v>
       </c>
@@ -1106,7 +1116,9 @@
       <c r="R11" s="1">
         <v>0.25</v>
       </c>
-      <c r="S11" s="1"/>
+      <c r="S11" s="1">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="T11" s="1">
         <v>0.28000000000000003</v>
       </c>
@@ -1181,7 +1193,9 @@
       <c r="R12" s="1">
         <v>0.25</v>
       </c>
-      <c r="S12" s="1"/>
+      <c r="S12" s="1">
+        <v>0.35</v>
+      </c>
       <c r="T12" s="1">
         <v>0.31</v>
       </c>
@@ -1256,7 +1270,9 @@
       <c r="R13" s="1">
         <v>0.25</v>
       </c>
-      <c r="S13" s="1"/>
+      <c r="S13" s="1">
+        <v>0.25</v>
+      </c>
       <c r="T13" s="1">
         <v>0.28000000000000003</v>
       </c>
@@ -1331,7 +1347,9 @@
       <c r="R14" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="S14" s="1"/>
+      <c r="S14" s="1">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="T14" s="1">
         <v>0.28000000000000003</v>
       </c>
@@ -1406,7 +1424,9 @@
       <c r="R15" s="1">
         <v>0.27</v>
       </c>
-      <c r="S15" s="1"/>
+      <c r="S15" s="1">
+        <v>0.27</v>
+      </c>
       <c r="T15" s="1">
         <v>0.28000000000000003</v>
       </c>
@@ -1498,9 +1518,9 @@
         <f t="shared" si="0"/>
         <v>0.28500000000000003</v>
       </c>
-      <c r="S16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="S16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29900000000000004</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" si="0"/>
